--- a/biology/Botanique/Hunga/Hunga.xlsx
+++ b/biology/Botanique/Hunga/Hunga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hunga est un genre de plantes à fleurs de la famille des Chrysobalanaceae. Ce sont des arbres et des arbustes originaires de Papouasie-Nouvelle-Guinée et de Nouvelle-Calédonie. 
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Espèces de Nouvelle-Calédonie :
 Hunga cordata
@@ -526,8 +540,8 @@
 Hunga fusicarpa 
 Hunga longifolia
 Hunga novoguineensis
-Hunga papuana[1].
-Selon Catalogue of Life                                   (16 juillet 2013)[2] et World Checklist of Selected Plant Families (WCSP)  (16 juillet 2013)[3] :
+Hunga papuana.
+Selon Catalogue of Life                                   (16 juillet 2013) et World Checklist of Selected Plant Families (WCSP)  (16 juillet 2013) :
 Hunga cordata Prance (1983)
 Hunga gerontogea (Schltr.) Prance (1979)
 Hunga guillauminii Prance (1983)
@@ -539,9 +553,9 @@
 Hunga novoguineensis Prance (1979)
 Hunga papuana (Baker f.) Prance (1979)
 Hunga rhamnoides (Guillaumin) Prance (1979)
-Selon NCBI  (16 juillet 2013)[4] :
+Selon NCBI  (16 juillet 2013) :
 Hunga gerontogea
-Selon Tropicos                                           (16 juillet 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 juillet 2013) (Attention liste brute contenant possiblement des synonymes) :
 Hunga cordata Prance
 Hunga fusicarpa Kosterm.
 Hunga gerontogea (Schltr.) Prance
